--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -411,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,22 +427,22 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="1"/>
-    <col min="2" max="2" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="6.6640625" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -457,7 +462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -476,7 +481,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -495,7 +500,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -514,7 +519,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -533,7 +538,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
     </row>
   </sheetData>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Mirae Asset ELSS Tax Saver Fund - Direct Plan - Growth</t>
+  </si>
+  <si>
+    <t>Last Purchased NAV</t>
+  </si>
+  <si>
+    <t>26-Dec-2024</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -144,6 +150,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,25 +434,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="6.7109375" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
@@ -458,11 +470,14 @@
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -472,16 +487,21 @@
       <c r="D3" s="6">
         <v>126.94</v>
       </c>
-      <c r="E3" s="6">
-        <v>120.35</v>
-      </c>
-      <c r="F3" s="4">
-        <f>(D3-E3)/D3</f>
-        <v>5.1914290215850034E-2</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>122.3</v>
+      </c>
+      <c r="F3">
+        <v>3.66</v>
+      </c>
+      <c r="H3" s="3">
+        <v>122.3</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(E3-H3)/H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -491,16 +511,21 @@
       <c r="D4" s="6">
         <v>113.68</v>
       </c>
-      <c r="E4" s="6">
-        <v>105</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F6" si="0">(D4-E4)/D4</f>
-        <v>7.6354679802955724E-2</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>104.76</v>
+      </c>
+      <c r="F4">
+        <v>7.85</v>
+      </c>
+      <c r="H4" s="3">
+        <v>104.76</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(E4-H4)/H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -510,16 +535,21 @@
       <c r="D5" s="6">
         <v>56.45</v>
       </c>
-      <c r="E5" s="6">
-        <v>52.71</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>6.6253321523472131E-2</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>52.8</v>
+      </c>
+      <c r="F5">
+        <v>6.47</v>
+      </c>
+      <c r="H5" s="3">
+        <v>52.8</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(E5-H5)/H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -529,17 +559,34 @@
       <c r="D6" s="6">
         <v>204.1</v>
       </c>
-      <c r="E6" s="6">
-        <v>196.54</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7040666340029407E-2</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>194.76</v>
+      </c>
+      <c r="F6">
+        <v>4.58</v>
+      </c>
+      <c r="H6" s="3">
+        <v>194.76</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(E6-H6)/H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -65,13 +60,20 @@
     <t>Last Purchased NAV</t>
   </si>
   <si>
-    <t>26-Dec-2024</t>
+    <t>27-Dec-2024</t>
+  </si>
+  <si>
+    <t>% From its last purchased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Time High Changed On </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +101,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,9 +155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -153,7 +164,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,159 +450,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="10" max="11" style="1" width="6.6640625" collapsed="true"/>
+    <col min="12" max="13" style="1" width="6.6640625" collapsed="true"/>
+    <col min="14" max="16384" style="1" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
-        <v>122.3</v>
-      </c>
-      <c r="F3">
-        <v>3.66</v>
-      </c>
+      <c r="E3" t="n">
+        <v>122.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G3"/>
       <c r="H3" s="3">
         <v>122.3</v>
       </c>
-      <c r="I3" s="4">
-        <f>(E3-H3)/H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="I3" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
-        <v>104.76</v>
-      </c>
-      <c r="F4">
-        <v>7.85</v>
+      <c r="E4" t="n">
+        <v>104.97</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.66</v>
       </c>
       <c r="H4" s="3">
-        <v>104.76</v>
-      </c>
-      <c r="I4" s="4">
-        <f>(E4-H4)/H4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+        <v>104.97</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
-        <v>52.8</v>
-      </c>
-      <c r="F5">
-        <v>6.47</v>
-      </c>
+      <c r="E5" t="n">
+        <v>52.84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G5"/>
       <c r="H5" s="3">
-        <v>52.8</v>
-      </c>
-      <c r="I5" s="4">
-        <f>(E5-H5)/H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+        <v>52.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
-        <v>194.76</v>
-      </c>
-      <c r="F6">
-        <v>4.58</v>
+      <c r="E6" t="n">
+        <v>194.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.77</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6" s="4">
-        <f>(E6-H6)/H6</f>
+      <c r="I6" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t xml:space="preserve">All Time High Changed On </t>
+  </si>
+  <si>
+    <t>(All Time High-CurrentNAV)/All Time High =</t>
+  </si>
+  <si>
+    <t>(CurrentNAV - Last Purchased NAV)/ Last Purchased NAV =</t>
+  </si>
+  <si>
+    <t>Manual Entered</t>
+  </si>
+  <si>
+    <t>28-Dec-2024</t>
   </si>
 </sst>
 </file>
@@ -91,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +128,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,11 +164,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -168,6 +216,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,9 +533,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="10" max="11" style="1" width="6.6640625" collapsed="true"/>
-    <col min="12" max="13" style="1" width="6.6640625" collapsed="true"/>
-    <col min="14" max="16384" style="1" width="6.6640625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -509,17 +573,17 @@
         <v>126.94</v>
       </c>
       <c r="E3" t="n">
-        <v>122.08</v>
+        <v>122.4</v>
       </c>
       <c r="F3" t="n">
-        <v>3.83</v>
+        <v>3.58</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
-        <v>122.3</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.18</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -533,16 +597,16 @@
         <v>113.68</v>
       </c>
       <c r="E4" t="n">
-        <v>104.97</v>
+        <v>105.06</v>
       </c>
       <c r="F4" t="n">
-        <v>7.66</v>
+        <v>7.58</v>
       </c>
       <c r="H4" s="3">
         <v>104.97</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -556,17 +620,17 @@
         <v>56.45</v>
       </c>
       <c r="E5" t="n">
-        <v>52.84</v>
+        <v>52.91</v>
       </c>
       <c r="F5" t="n">
-        <v>6.4</v>
+        <v>6.27</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.84</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -580,16 +644,16 @@
         <v>204.1</v>
       </c>
       <c r="E6" t="n">
-        <v>194.36</v>
+        <v>194.81</v>
       </c>
       <c r="F6" t="n">
-        <v>4.77</v>
+        <v>4.55</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.21</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -597,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -607,7 +671,165 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E10" s="6"/>
     </row>
+    <row r="17" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <v>126.94</v>
+      </c>
+      <c r="E22" s="12">
+        <v>122.08</v>
+      </c>
+      <c r="F22" s="13">
+        <f>(D22-E22)/D22</f>
+        <v>3.8285804317000155E-2</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="14">
+        <v>120</v>
+      </c>
+      <c r="I22" s="13">
+        <f>(E22-H22)/H22</f>
+        <v>1.7333333333333319E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11">
+        <v>113.68</v>
+      </c>
+      <c r="E23" s="12">
+        <v>104.97</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" ref="F23:F25" si="0">(D23-E23)/D23</f>
+        <v>7.6618578465869169E-2</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <v>104.97</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" ref="I23:I25" si="1">(E23-H23)/H23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11">
+        <v>56.45</v>
+      </c>
+      <c r="E24" s="12">
+        <v>52.84</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>6.3950398582816634E-2</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14">
+        <v>52.84</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11">
+        <v>204.1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>194.36</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
+        <v>4.7721705046545715E-2</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <v>194.76</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="1"/>
+        <v>-2.0538098172108096E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>28-Dec-2024</t>
+  </si>
+  <si>
+    <t>31-Dec-2024</t>
   </si>
 </sst>
 </file>
@@ -573,17 +576,17 @@
         <v>126.94</v>
       </c>
       <c r="E3" t="n">
-        <v>122.4</v>
+        <v>122.34</v>
       </c>
       <c r="F3" t="n">
-        <v>3.58</v>
+        <v>3.62</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>2.0</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -60,9 +65,6 @@
     <t>Last Purchased NAV</t>
   </si>
   <si>
-    <t>27-Dec-2024</t>
-  </si>
-  <si>
     <t>% From its last purchased</t>
   </si>
   <si>
@@ -78,17 +80,13 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>28-Dec-2024</t>
-  </si>
-  <si>
-    <t>31-Dec-2024</t>
+    <t>02-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,23 +219,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,27 +517,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I25"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -556,16 +554,16 @@
         <v>4</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -575,21 +573,21 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
-        <v>122.34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.62</v>
+      <c r="E3">
+        <v>123.61</v>
+      </c>
+      <c r="F3">
+        <v>2.62</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>120</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -599,20 +597,20 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
-        <v>105.06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.58</v>
+      <c r="E4">
+        <v>105.21</v>
+      </c>
+      <c r="F4">
+        <v>7.45</v>
       </c>
       <c r="H4" s="3">
         <v>104.97</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -622,21 +620,21 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
-        <v>52.91</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.27</v>
+      <c r="E5">
+        <v>52.68</v>
+      </c>
+      <c r="F5">
+        <v>6.68</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.84</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -646,192 +644,192 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
-        <v>194.81</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.55</v>
+      <c r="E6">
+        <v>196.25</v>
+      </c>
+      <c r="F6">
+        <v>3.85</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
-    <row r="17" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+    <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>126.94</v>
+      </c>
+      <c r="E19" s="10">
+        <v>123.61</v>
+      </c>
+      <c r="F19" s="11">
+        <f>(D19-E19)/D19</f>
+        <v>2.6232865920907504E-2</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="12">
+        <v>120</v>
+      </c>
+      <c r="I19" s="11">
+        <f>(E19-H19)/H19</f>
+        <v>3.008333333333333E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9">
+        <v>113.68</v>
+      </c>
+      <c r="E20" s="10">
+        <v>105.21</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
+        <v>7.4507389162561694E-2</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <v>104.97</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" ref="I20:I22" si="1">(E20-H20)/H20</f>
+        <v>2.2863675335809746E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9">
+        <v>56.45</v>
+      </c>
+      <c r="E21" s="10">
+        <v>52.68</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6784765279008021E-2</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="12">
+        <v>52.84</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.0280090840273219E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11">
-        <v>126.94</v>
-      </c>
-      <c r="E22" s="12">
-        <v>122.08</v>
-      </c>
-      <c r="F22" s="13">
-        <f>(D22-E22)/D22</f>
-        <v>3.8285804317000155E-2</v>
+        <v>7</v>
+      </c>
+      <c r="D22" s="9">
+        <v>204.1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>196.25</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538436E-2</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="14">
-        <v>120</v>
-      </c>
-      <c r="I22" s="13">
-        <f>(E22-H22)/H22</f>
-        <v>1.7333333333333319E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="11">
-        <v>113.68</v>
-      </c>
-      <c r="E23" s="12">
-        <v>104.97</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" ref="F23:F25" si="0">(D23-E23)/D23</f>
-        <v>7.6618578465869169E-2</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>104.97</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" ref="I23:I25" si="1">(E23-H23)/H23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="11">
-        <v>56.45</v>
-      </c>
-      <c r="E24" s="12">
-        <v>52.84</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" si="0"/>
-        <v>6.3950398582816634E-2</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="14">
-        <v>52.84</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="H22" s="12">
+        <v>194.76</v>
+      </c>
+      <c r="I22" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="11">
-        <v>204.1</v>
-      </c>
-      <c r="E25" s="12">
-        <v>194.36</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" si="0"/>
-        <v>4.7721705046545715E-2</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <v>194.76</v>
-      </c>
-      <c r="I25" s="13">
-        <f t="shared" si="1"/>
-        <v>-2.0538098172108096E-3</v>
+        <v>7.6504415691107473E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -80,7 +80,7 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>02-Jan-2025</t>
+    <t>03-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,17 +574,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>123.61</v>
+        <v>124.42</v>
       </c>
       <c r="F3">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>120</v>
       </c>
       <c r="I3">
-        <v>3.01</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -598,16 +598,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>105.21</v>
+        <v>107.11</v>
       </c>
       <c r="F4">
-        <v>7.45</v>
+        <v>5.78</v>
       </c>
       <c r="H4" s="3">
         <v>104.97</v>
       </c>
       <c r="I4">
-        <v>0.23</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -621,17 +621,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>52.68</v>
+        <v>53.31</v>
       </c>
       <c r="F5">
-        <v>6.68</v>
+        <v>5.56</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.84</v>
       </c>
       <c r="I5">
-        <v>-0.3</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -645,16 +645,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>196.25</v>
+        <v>197.45</v>
       </c>
       <c r="F6">
-        <v>3.85</v>
+        <v>3.26</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6">
-        <v>0.77</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -733,11 +733,11 @@
         <v>126.94</v>
       </c>
       <c r="E19" s="10">
-        <v>123.61</v>
+        <v>124.42</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>2.6232865920907504E-2</v>
+        <v>1.9851898534740793E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
@@ -745,7 +745,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>3.008333333333333E-2</v>
+        <v>3.683333333333335E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -759,11 +759,11 @@
         <v>113.68</v>
       </c>
       <c r="E20" s="10">
-        <v>105.21</v>
+        <v>107.11</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
-        <v>7.4507389162561694E-2</v>
+        <v>5.7793807178043693E-2</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
@@ -771,7 +771,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ref="I20:I22" si="1">(E20-H20)/H20</f>
-        <v>2.2863675335809746E-3</v>
+        <v>2.0386777174430794E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -785,11 +785,11 @@
         <v>56.45</v>
       </c>
       <c r="E21" s="10">
-        <v>52.68</v>
+        <v>53.31</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>6.6784765279008021E-2</v>
+        <v>5.5624446412754658E-2</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
@@ -797,7 +797,7 @@
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
-        <v>-3.0280090840273219E-3</v>
+        <v>8.8947766843300302E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -811,11 +811,11 @@
         <v>204.1</v>
       </c>
       <c r="E22" s="10">
-        <v>196.25</v>
+        <v>197.45</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>3.8461538461538436E-2</v>
+        <v>3.2582067613914779E-2</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
@@ -823,7 +823,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
-        <v>7.6504415691107473E-3</v>
+        <v>1.3811871020743468E-2</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -80,7 +80,7 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>03-Jan-2025</t>
+    <t>06-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -574,17 +574,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>124.42</v>
+        <v>124.49</v>
       </c>
       <c r="F3">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>120</v>
       </c>
       <c r="I3">
-        <v>3.68</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -598,16 +598,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>107.11</v>
+        <v>106.61</v>
       </c>
       <c r="F4">
-        <v>5.78</v>
+        <v>6.22</v>
       </c>
       <c r="H4" s="3">
         <v>104.97</v>
       </c>
       <c r="I4">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -621,17 +621,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>53.31</v>
+        <v>53.04</v>
       </c>
       <c r="F5">
-        <v>5.56</v>
+        <v>6.04</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.84</v>
       </c>
       <c r="I5">
-        <v>0.89</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -645,16 +645,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>197.45</v>
+        <v>197.01</v>
       </c>
       <c r="F6">
-        <v>3.26</v>
+        <v>3.47</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6">
-        <v>1.38</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -80,13 +75,14 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>06-Jan-2025</t>
+    <t>07-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,27 +513,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -563,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -573,21 +569,21 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
-        <v>124.49</v>
-      </c>
-      <c r="F3">
-        <v>1.93</v>
+      <c r="E3" t="n">
+        <v>121.53</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.26</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
-        <v>120</v>
-      </c>
-      <c r="I3">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>121.53</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -597,20 +593,20 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
-        <v>106.61</v>
-      </c>
-      <c r="F4">
-        <v>6.22</v>
+      <c r="E4" t="n">
+        <v>104.66</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.93</v>
       </c>
       <c r="H4" s="3">
-        <v>104.97</v>
-      </c>
-      <c r="I4">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>104.66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -620,21 +616,21 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
-        <v>53.04</v>
-      </c>
-      <c r="F5">
-        <v>6.04</v>
+      <c r="E5" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.94</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
-        <v>52.84</v>
-      </c>
-      <c r="I5">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>51.97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -644,20 +640,20 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
-        <v>197.01</v>
-      </c>
-      <c r="F6">
-        <v>3.47</v>
+      <c r="E6" t="n">
+        <v>191.56</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.14</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="n">
+        <v>-1.64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -665,11 +661,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,12 +687,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -733,22 +729,22 @@
         <v>126.94</v>
       </c>
       <c r="E19" s="10">
-        <v>124.42</v>
+        <v>121.53</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>1.9851898534740793E-2</v>
+        <v>4.2618559949582455E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
-        <v>120</v>
+        <v>121.53</v>
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>3.683333333333335E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -759,22 +755,22 @@
         <v>113.68</v>
       </c>
       <c r="E20" s="10">
-        <v>107.11</v>
+        <v>104.66</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
-        <v>5.7793807178043693E-2</v>
+        <v>7.9345531315974757E-2</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <v>104.97</v>
+        <v>104.66</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ref="I20:I22" si="1">(E20-H20)/H20</f>
-        <v>2.0386777174430794E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -785,22 +781,22 @@
         <v>56.45</v>
       </c>
       <c r="E21" s="10">
-        <v>53.31</v>
+        <v>51.97</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>5.5624446412754658E-2</v>
+        <v>7.9362267493357022E-2</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
-        <v>52.84</v>
+        <v>51.97</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
-        <v>8.8947766843300302E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -811,11 +807,11 @@
         <v>204.1</v>
       </c>
       <c r="E22" s="10">
-        <v>197.45</v>
+        <v>191.56</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>3.2582067613914779E-2</v>
+        <v>6.1440470357667774E-2</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
@@ -823,7 +819,19 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
-        <v>1.3811871020743468E-2</v>
+        <v>-1.6430478537687351E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <f>50000/124.42</f>
+        <v>401.86465198521137</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <f>50000/121.53</f>
+        <v>411.42104830083105</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -75,14 +80,13 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>07-Jan-2025</t>
+    <t>08-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,21 +523,21 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -559,7 +563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -569,21 +573,21 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
-        <v>121.53</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.26</v>
+      <c r="E3">
+        <v>122.8</v>
+      </c>
+      <c r="F3">
+        <v>3.26</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>121.53</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -593,20 +597,20 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
-        <v>104.66</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.93</v>
+      <c r="E4">
+        <v>104.77</v>
+      </c>
+      <c r="F4">
+        <v>7.84</v>
       </c>
       <c r="H4" s="3">
         <v>104.66</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -616,21 +620,21 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
-        <v>51.97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.94</v>
+      <c r="E5">
+        <v>52.18</v>
+      </c>
+      <c r="F5">
+        <v>7.56</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>51.97</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -640,20 +644,20 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
-        <v>191.56</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.14</v>
+      <c r="E6">
+        <v>194.4</v>
+      </c>
+      <c r="F6">
+        <v>4.75</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6" t="n">
-        <v>-1.64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -661,11 +665,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,12 +691,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -718,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -744,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -770,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -796,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -822,13 +826,13 @@
         <v>-1.6430478537687351E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F29" s="1">
         <f>50000/124.42</f>
         <v>401.86465198521137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F30" s="1">
         <f>50000/121.53</f>
         <v>411.42104830083105</v>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +75,7 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>08-Jan-2025</t>
+    <t>09-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -509,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,24 +515,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -563,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -574,20 +569,20 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>122.8</v>
+        <v>121.8</v>
       </c>
       <c r="F3">
-        <v>3.26</v>
+        <v>4.05</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
-        <v>121.53</v>
+        <v>122.8</v>
       </c>
       <c r="I3">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -598,19 +593,19 @@
         <v>113.68</v>
       </c>
       <c r="E4">
+        <v>103.84</v>
+      </c>
+      <c r="F4">
+        <v>8.66</v>
+      </c>
+      <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="F4">
-        <v>7.84</v>
-      </c>
-      <c r="H4" s="3">
-        <v>104.66</v>
-      </c>
       <c r="I4">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -621,20 +616,20 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>52.18</v>
+        <v>51.93</v>
       </c>
       <c r="F5">
-        <v>7.56</v>
+        <v>8.01</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
-        <v>51.97</v>
+        <v>52.18</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -645,19 +640,19 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>194.4</v>
+        <v>191.75</v>
       </c>
       <c r="F6">
-        <v>4.75</v>
+        <v>6.05</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6">
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -665,11 +660,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,12 +686,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -733,22 +728,23 @@
         <v>126.94</v>
       </c>
       <c r="E19" s="10">
-        <v>121.53</v>
+        <v>121.8</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>4.2618559949582455E-2</v>
+        <v>4.0491570820860252E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
-        <v>121.53</v>
+        <f>H3</f>
+        <v>122.8</v>
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8.1433224755700327E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -759,22 +755,23 @@
         <v>113.68</v>
       </c>
       <c r="E20" s="10">
-        <v>104.66</v>
+        <v>103.84</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
-        <v>7.9345531315974757E-2</v>
+        <v>8.6558761435608755E-2</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <v>104.66</v>
+        <f>H4</f>
+        <v>104.77</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ref="I20:I22" si="1">(E20-H20)/H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8.8765868092010366E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -785,22 +782,23 @@
         <v>56.45</v>
       </c>
       <c r="E21" s="10">
-        <v>51.97</v>
+        <v>51.93</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>7.9362267493357022E-2</v>
+        <v>8.0070859167404834E-2</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
-        <v>51.97</v>
+        <f>H5</f>
+        <v>52.18</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4.7911077041011881E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -811,28 +809,29 @@
         <v>204.1</v>
       </c>
       <c r="E22" s="10">
-        <v>191.56</v>
+        <v>191.75</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>6.1440470357667774E-2</v>
+        <v>6.0509554140127361E-2</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
+        <f>H6</f>
         <v>194.76</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="1"/>
-        <v>-1.6430478537687351E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1.5454918874512174E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="F29" s="1">
         <f>50000/124.42</f>
         <v>401.86465198521137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="F30" s="1">
         <f>50000/121.53</f>
         <v>411.42104830083105</v>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,24 +520,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -558,7 +563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -582,7 +587,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -605,7 +610,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -629,7 +634,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -652,7 +657,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -660,11 +665,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,12 +691,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -728,6 +733,7 @@
         <v>126.94</v>
       </c>
       <c r="E19" s="10">
+        <f>E3</f>
         <v>121.8</v>
       </c>
       <c r="F19" s="11">
@@ -744,7 +750,7 @@
         <v>-8.1433224755700327E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -755,6 +761,7 @@
         <v>113.68</v>
       </c>
       <c r="E20" s="10">
+        <f>E4</f>
         <v>103.84</v>
       </c>
       <c r="F20" s="11">
@@ -771,7 +778,7 @@
         <v>-8.8765868092010366E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -782,6 +789,7 @@
         <v>56.45</v>
       </c>
       <c r="E21" s="10">
+        <f>E5</f>
         <v>51.93</v>
       </c>
       <c r="F21" s="11">
@@ -798,7 +806,7 @@
         <v>-4.7911077041011881E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -809,6 +817,7 @@
         <v>204.1</v>
       </c>
       <c r="E22" s="10">
+        <f>E6</f>
         <v>191.75</v>
       </c>
       <c r="F22" s="11">
@@ -825,13 +834,13 @@
         <v>-1.5454918874512174E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F29" s="1">
         <f>50000/124.42</f>
         <v>401.86465198521137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F30" s="1">
         <f>50000/121.53</f>
         <v>411.42104830083105</v>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +75,7 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>09-Jan-2025</t>
+    <t>10-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -509,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,24 +515,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -563,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -574,20 +569,20 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>121.8</v>
+        <v>120.6</v>
       </c>
       <c r="F3">
-        <v>4.05</v>
+        <v>4.99</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-0.81</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -598,19 +593,19 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>103.84</v>
+        <v>103.11</v>
       </c>
       <c r="F4">
-        <v>8.66</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-0.89</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -621,20 +616,20 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>51.93</v>
+        <v>51.55</v>
       </c>
       <c r="F5">
-        <v>8.01</v>
+        <v>8.68</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-0.48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1.21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -645,19 +640,19 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>191.75</v>
+        <v>189.93</v>
       </c>
       <c r="F6">
-        <v>6.05</v>
+        <v>6.94</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6">
-        <v>-1.55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -665,11 +660,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,12 +686,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -734,7 +729,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>121.8</v>
+        <v>120.6</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -747,10 +742,10 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-8.1433224755700327E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1.7915309446254093E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -762,7 +757,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>103.84</v>
+        <v>103.11</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
@@ -774,11 +769,11 @@
         <v>104.77</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" ref="I20:I22" si="1">(E20-H20)/H20</f>
-        <v>-8.8765868092010366E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <f>(E20-H20)/H20</f>
+        <v>-1.5844230218573986E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -790,7 +785,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>51.93</v>
+        <v>51.55</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
@@ -802,11 +797,11 @@
         <v>52.18</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="1"/>
-        <v>-4.7911077041011881E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <f>(E21-H21)/H21</f>
+        <v>-1.2073591414335044E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -818,7 +813,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>191.75</v>
+        <v>189.93</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
@@ -830,17 +825,17 @@
         <v>194.76</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="1"/>
-        <v>-1.5454918874512174E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <f>(E22-H22)/H22</f>
+        <v>-2.4799753542821854E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="F29" s="1">
         <f>50000/124.42</f>
         <v>401.86465198521137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="F30" s="1">
         <f>50000/121.53</f>
         <v>411.42104830083105</v>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -75,7 +75,10 @@
     <t>Manual Entered</t>
   </si>
   <si>
-    <t>10-Jan-2025</t>
+    <t>12-Jan-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,17 +572,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>120.6</v>
+        <v>118.6</v>
       </c>
       <c r="F3">
-        <v>4.99</v>
+        <v>6.57</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-1.79</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -593,16 +596,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>103.11</v>
+        <v>102.1</v>
       </c>
       <c r="F4">
-        <v>9.3000000000000007</v>
+        <v>10.19</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-1.58</v>
+        <v>-2.5499999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -616,17 +619,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>51.55</v>
+        <v>50.93</v>
       </c>
       <c r="F5">
-        <v>8.68</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-1.21</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -640,16 +643,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>189.93</v>
+        <v>186.09</v>
       </c>
       <c r="F6">
-        <v>6.94</v>
+        <v>8.82</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6">
-        <v>-2.48</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -729,11 +732,11 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>120.6</v>
+        <v>118.6</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>4.0491570820860252E-2</v>
+        <v>6.5700330864975606E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
@@ -742,7 +745,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-1.7915309446254093E-2</v>
+        <v>-3.4201954397394159E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -757,11 +760,11 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>103.11</v>
+        <v>102.1</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
-        <v>8.6558761435608755E-2</v>
+        <f>(D20-E20)/D20</f>
+        <v>0.10186488388458842</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
@@ -770,7 +773,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-1.5844230218573986E-2</v>
+        <v>-2.5484394387706423E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -785,11 +788,11 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>51.55</v>
+        <v>50.93</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="0"/>
-        <v>8.0070859167404834E-2</v>
+        <f>(D21-E21)/D21</f>
+        <v>9.7785651018600581E-2</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
@@ -798,7 +801,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-1.2073591414335044E-2</v>
+        <v>-2.3955538520505942E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -813,11 +816,11 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>189.93</v>
+        <v>186.09</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="0"/>
-        <v>6.0509554140127361E-2</v>
+        <f>(D22-E22)/D22</f>
+        <v>8.8241058304752526E-2</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
@@ -826,19 +829,13 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-2.4799753542821854E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="F29" s="1">
-        <f>50000/124.42</f>
-        <v>401.86465198521137</v>
-      </c>
-    </row>
+        <v>-4.4516327788046768E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="F30" s="1">
-        <f>50000/121.53</f>
-        <v>411.42104830083105</v>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -504,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,24 +520,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -558,7 +563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -582,7 +587,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -605,7 +610,7 @@
         <v>-1.58</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -629,7 +634,7 @@
         <v>-1.21</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -652,7 +657,7 @@
         <v>-2.48</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -660,11 +665,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,12 +691,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -717,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -733,7 +738,7 @@
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>4.0491570820860252E-2</v>
+        <v>4.9944855837403525E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
@@ -745,7 +750,7 @@
         <v>-1.7915309446254093E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -761,7 +766,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" ref="F20:F22" si="0">(D20-E20)/D20</f>
-        <v>8.6558761435608755E-2</v>
+        <v>9.2980295566502516E-2</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
@@ -773,7 +778,7 @@
         <v>-1.5844230218573986E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -788,8 +793,8 @@
         <v>51.55</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="0"/>
-        <v>8.0070859167404834E-2</v>
+        <f>(D21-E21)/D21</f>
+        <v>8.6802480070859264E-2</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
@@ -801,7 +806,7 @@
         <v>-1.2073591414335044E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -817,7 +822,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>6.0509554140127361E-2</v>
+        <v>6.9426751592356631E-2</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
@@ -829,13 +834,13 @@
         <v>-2.4799753542821854E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F29" s="1">
         <f>50000/124.42</f>
         <v>401.86465198521137</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F30" s="1">
         <f>50000/121.53</f>
         <v>411.42104830083105</v>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -79,12 +79,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>14-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,16 +527,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -571,18 +575,18 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
-        <v>118.6</v>
-      </c>
-      <c r="F3">
-        <v>6.57</v>
+      <c r="E3" t="n">
+        <v>114.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.82</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3">
-        <v>-3.42</v>
+      <c r="I3" t="n">
+        <v>-6.78</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -595,17 +599,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
-        <v>102.1</v>
-      </c>
-      <c r="F4">
-        <v>10.19</v>
+      <c r="E4" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.6</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4">
-        <v>-2.5499999999999998</v>
+      <c r="I4" t="n">
+        <v>-5.16</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -618,18 +622,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
-        <v>50.93</v>
-      </c>
-      <c r="F5">
-        <v>9.7799999999999994</v>
+      <c r="E5" t="n">
+        <v>49.71</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.94</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5">
-        <v>-2.4</v>
+      <c r="I5" t="n">
+        <v>-4.73</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -642,17 +646,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
-        <v>186.09</v>
-      </c>
-      <c r="F6">
-        <v>8.82</v>
+      <c r="E6" t="n">
+        <v>179.06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.27</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6">
-        <v>-4.45</v>
+      <c r="I6" t="n">
+        <v>-8.06</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -660,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -73,9 +78,6 @@
   </si>
   <si>
     <t>Manual Entered</t>
-  </si>
-  <si>
-    <t>12-Jan-2025</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -88,7 +90,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,24 +523,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -565,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -575,21 +576,21 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>114.47</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>9.82</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-6.78</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -599,20 +600,20 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>99.36</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>12.6</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-5.16</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -622,21 +623,21 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>49.71</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>11.94</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5" t="n">
-        <v>-4.73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>-4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -646,32 +647,32 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>179.06</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>12.27</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-8.06</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,12 +694,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -724,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -736,23 +737,22 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>118.6</v>
+        <v>114.47</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>6.5700330864975606E-2</v>
+        <v>9.8235386796911919E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
-        <f>H3</f>
-        <v>122.8</v>
+        <v>114.47</v>
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-3.4201954397394159E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -764,23 +764,22 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>102.1</v>
+        <v>99.36</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
-        <v>0.10186488388458842</v>
+        <v>0.12596762843068268</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <f>H4</f>
-        <v>104.77</v>
+        <v>99.36</v>
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-2.5484394387706423E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -792,23 +791,22 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>50.93</v>
+        <v>49.71</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
-        <v>9.7785651018600581E-2</v>
+        <v>0.11939769707705937</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
-        <f>H5</f>
-        <v>52.18</v>
+        <v>49.71</v>
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-2.3955538520505942E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -820,11 +818,11 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>186.09</v>
+        <v>179.06</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
-        <v>8.8241058304752526E-2</v>
+        <v>0.12268495835374812</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
@@ -833,13 +831,12 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-4.4516327788046768E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>-8.0612035325528797E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -84,12 +84,16 @@
   </si>
   <si>
     <t>14-Jan-2025</t>
+  </si>
+  <si>
+    <t>15-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,16 +532,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -576,17 +580,17 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>114.47</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>9.82</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>-6.78</v>
       </c>
     </row>
@@ -600,16 +604,16 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>99.36</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>12.6</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>-5.16</v>
       </c>
     </row>
@@ -623,18 +627,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>49.71</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>11.94</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5">
-        <v>-4.7300000000000004</v>
+      <c r="I5" t="n">
+        <v>-4.73</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -647,16 +651,16 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>179.06</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>12.27</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>-8.06</v>
       </c>
     </row>
@@ -665,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -83,17 +83,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>14-Jan-2025</t>
-  </si>
-  <si>
-    <t>15-Jan-2025</t>
+    <t>16-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,21 +523,21 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -580,18 +576,18 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
-        <v>114.47</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.82</v>
+      <c r="E3">
+        <v>116.63</v>
+      </c>
+      <c r="F3">
+        <v>8.1199999999999992</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>-6.78</v>
+      <c r="I3">
+        <v>-5.0199999999999996</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -604,17 +600,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
-        <v>99.36</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.6</v>
+      <c r="E4">
+        <v>100.64</v>
+      </c>
+      <c r="F4">
+        <v>11.47</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4" t="n">
-        <v>-5.16</v>
+      <c r="I4">
+        <v>-3.94</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -627,18 +623,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
-        <v>49.71</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11.94</v>
+      <c r="E5">
+        <v>50.54</v>
+      </c>
+      <c r="F5">
+        <v>10.47</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5" t="n">
-        <v>-4.73</v>
+      <c r="I5">
+        <v>-3.14</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -651,17 +647,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
-        <v>179.06</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12.27</v>
+      <c r="E6">
+        <v>182.81</v>
+      </c>
+      <c r="F6">
+        <v>10.43</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6" t="n">
-        <v>-8.06</v>
+      <c r="I6">
+        <v>-6.14</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -669,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -741,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>114.47</v>
+        <v>116.63</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -749,11 +745,11 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
-        <v>114.47</v>
+        <v>115.61</v>
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>0</v>
+        <v>8.8227661966957527E-3</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -768,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>99.36</v>
+        <v>100.64</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -776,11 +772,11 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <v>99.36</v>
+        <v>100.49</v>
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>0</v>
+        <v>1.4926858393870604E-3</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -795,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>49.71</v>
+        <v>50.54</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -803,11 +799,11 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
-        <v>49.71</v>
+        <v>50.36</v>
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>0</v>
+        <v>3.5742652899126235E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -822,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>179.06</v>
+        <v>182.81</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +78,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>16-Jan-2025</t>
+    <t>17-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -512,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,24 +518,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -566,7 +561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -577,20 +572,20 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>116.63</v>
+        <v>117.74</v>
       </c>
       <c r="F3">
-        <v>8.1199999999999992</v>
+        <v>7.25</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4.12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -601,19 +596,19 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>100.64</v>
+        <v>101.49</v>
       </c>
       <c r="F4">
-        <v>11.47</v>
+        <v>10.72</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-3.94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3.13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -624,20 +619,20 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>50.54</v>
+        <v>51.02</v>
       </c>
       <c r="F5">
-        <v>10.47</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-3.14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -648,19 +643,19 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>182.81</v>
+        <v>184.85</v>
       </c>
       <c r="F6">
-        <v>10.43</v>
+        <v>9.43</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
       <c r="I6">
-        <v>-6.14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5.09</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -668,11 +663,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,12 +689,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -725,7 +720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -737,7 +732,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>116.63</v>
+        <v>117.74</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -752,7 +747,7 @@
         <v>8.8227661966957527E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -764,7 +759,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>100.64</v>
+        <v>101.49</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -779,7 +774,7 @@
         <v>1.4926858393870604E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -791,7 +786,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>50.54</v>
+        <v>51.02</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -806,7 +801,7 @@
         <v>3.5742652899126235E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -818,7 +813,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>182.81</v>
+        <v>184.85</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -834,7 +829,7 @@
         <v>-8.0612035325528797E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>18</v>
       </c>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -79,12 +79,16 @@
   </si>
   <si>
     <t>17-Jan-2025</t>
+  </si>
+  <si>
+    <t>20-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,16 +527,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.6640625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -571,18 +575,18 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
-        <v>117.74</v>
-      </c>
-      <c r="F3">
-        <v>7.25</v>
+      <c r="E3" t="n">
+        <v>117.09</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.76</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3">
-        <v>-4.12</v>
+      <c r="I3" t="n">
+        <v>-4.65</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -595,17 +599,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
-        <v>101.49</v>
-      </c>
-      <c r="F4">
-        <v>10.72</v>
+      <c r="E4" t="n">
+        <v>101.19</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.99</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4">
-        <v>-3.13</v>
+      <c r="I4" t="n">
+        <v>-3.42</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -618,18 +622,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
-        <v>51.02</v>
-      </c>
-      <c r="F5">
-        <v>9.6199999999999992</v>
+      <c r="E5" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.88</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5">
-        <v>-2.2200000000000002</v>
+      <c r="I5" t="n">
+        <v>-2.51</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -642,17 +646,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
-        <v>184.85</v>
-      </c>
-      <c r="F6">
-        <v>9.43</v>
+      <c r="E6" t="n">
+        <v>184.83</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.44</v>
       </c>
       <c r="H6" s="3">
         <v>194.76</v>
       </c>
-      <c r="I6">
-        <v>-5.09</v>
+      <c r="I6" t="n">
+        <v>-5.1</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
@@ -660,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -78,17 +83,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>17-Jan-2025</t>
-  </si>
-  <si>
-    <t>20-Jan-2025</t>
+    <t>21-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,24 +523,24 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.33203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.6640625" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -565,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -575,21 +576,21 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
-        <v>117.09</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.76</v>
+      <c r="E3">
+        <v>117.81</v>
+      </c>
+      <c r="F3">
+        <v>7.19</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>-4.65</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>-4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -599,20 +600,20 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
-        <v>101.19</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.99</v>
+      <c r="E4">
+        <v>101.74</v>
+      </c>
+      <c r="F4">
+        <v>10.5</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4" t="n">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>-2.89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
@@ -622,21 +623,21 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.88</v>
+      <c r="E5">
+        <v>51.18</v>
+      </c>
+      <c r="F5">
+        <v>9.34</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5" t="n">
-        <v>-2.51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>-1.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -646,32 +647,32 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
-        <v>184.83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.44</v>
+      <c r="E6">
+        <v>185.74</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
       </c>
       <c r="H6" s="3">
-        <v>194.76</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-5.1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="I6">
+        <v>-4.63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,12 +694,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
@@ -724,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
@@ -736,11 +737,11 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>117.74</v>
+        <v>117.81</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>9.8235386796911919E-2</v>
+        <v>7.1923743500866513E-2</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
@@ -748,10 +749,10 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>8.8227661966957527E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>1.9029495718363487E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
@@ -763,11 +764,11 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>101.49</v>
+        <v>101.74</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
-        <v>0.12596762843068268</v>
+        <v>0.10503166783954972</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
@@ -775,10 +776,10 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>1.4926858393870604E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>1.2439048661558365E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
@@ -790,11 +791,11 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>51.02</v>
+        <v>51.18</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
-        <v>0.11939769707705937</v>
+        <v>9.3356953055801647E-2</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
@@ -802,10 +803,10 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>3.5742652899126235E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>1.628276409849087E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
@@ -817,23 +818,23 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>184.85</v>
+        <v>185.74</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
-        <v>0.12268495835374812</v>
+        <v>8.9955903968642753E-2</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
         <f>H6</f>
-        <v>194.76</v>
+        <v>184</v>
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-8.0612035325528797E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>9.456521739130485E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>18</v>
       </c>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>21-Jan-2025</t>
+    <t>22-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>117.81</v>
+        <v>115.58</v>
       </c>
       <c r="F3">
-        <v>7.19</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-4.0599999999999996</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>101.74</v>
+        <v>99.75</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>12.25</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-2.89</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>51.18</v>
+        <v>50.3</v>
       </c>
       <c r="F5">
-        <v>9.34</v>
+        <v>10.89</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-1.92</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>185.74</v>
+        <v>182.33</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10.67</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-4.63</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>117.81</v>
+        <v>115.58</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -749,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>1.9029495718363487E-2</v>
+        <v>-2.5949312343223889E-4</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>101.74</v>
+        <v>99.75</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -776,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>1.2439048661558365E-2</v>
+        <v>-7.3639168076425014E-3</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>51.18</v>
+        <v>50.3</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>1.628276409849087E-2</v>
+        <v>-1.1914217633042549E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>185.74</v>
+        <v>182.33</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -831,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>9.456521739130485E-3</v>
+        <v>-9.0760869565216715E-3</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>22-Jan-2025</t>
+    <t>23-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>115.58</v>
+        <v>113.99</v>
       </c>
       <c r="F3">
-        <v>8.9499999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-5.88</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>99.75</v>
+        <v>99.59</v>
       </c>
       <c r="F4">
-        <v>12.25</v>
+        <v>12.39</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-4.79</v>
+        <v>-4.9400000000000004</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>50.3</v>
+        <v>50.12</v>
       </c>
       <c r="F5">
-        <v>10.89</v>
+        <v>11.21</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-3.6</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>182.33</v>
+        <v>179.91</v>
       </c>
       <c r="F6">
-        <v>10.67</v>
+        <v>11.85</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-0.91</v>
+        <v>-2.2200000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>115.58</v>
+        <v>113.99</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -749,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-2.5949312343223889E-4</v>
+        <v>-1.4012628665340409E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>99.75</v>
+        <v>99.59</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -776,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-7.3639168076425014E-3</v>
+        <v>-8.9561150363219374E-3</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>50.3</v>
+        <v>50.12</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-1.1914217633042549E-3</v>
+        <v>-4.7656870532168782E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>182.33</v>
+        <v>179.91</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -831,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-9.0760869565216715E-3</v>
+        <v>-2.2228260869565235E-2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -84,12 +84,16 @@
   </si>
   <si>
     <t>23-Jan-2025</t>
+  </si>
+  <si>
+    <t>24-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,16 +532,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -576,17 +580,17 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>113.99</v>
       </c>
-      <c r="F3">
-        <v>10.199999999999999</v>
+      <c r="F3" t="n">
+        <v>10.2</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>-7.17</v>
       </c>
     </row>
@@ -600,17 +604,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
-        <v>99.59</v>
-      </c>
-      <c r="F4">
-        <v>12.39</v>
+      <c r="E4" t="n">
+        <v>100.72</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.4</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4">
-        <v>-4.9400000000000004</v>
+      <c r="I4" t="n">
+        <v>-3.87</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -623,18 +627,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
-        <v>50.12</v>
-      </c>
-      <c r="F5">
-        <v>11.21</v>
+      <c r="E5" t="n">
+        <v>50.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.58</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5">
-        <v>-3.95</v>
+      <c r="I5" t="n">
+        <v>-3.26</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -647,17 +651,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>179.91</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>11.85</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
-      <c r="I6">
-        <v>-2.2200000000000002</v>
+      <c r="I6" t="n">
+        <v>-2.22</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -665,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -83,17 +83,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>23-Jan-2025</t>
-  </si>
-  <si>
-    <t>24-Jan-2025</t>
+    <t>27-Jan-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,21 +523,21 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -580,18 +576,18 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
-        <v>113.99</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.2</v>
+      <c r="E3">
+        <v>113.48</v>
+      </c>
+      <c r="F3">
+        <v>10.6</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>-7.17</v>
+      <c r="I3">
+        <v>-7.59</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -604,17 +600,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
-        <v>100.72</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11.4</v>
+      <c r="E4">
+        <v>99.89</v>
+      </c>
+      <c r="F4">
+        <v>12.13</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4" t="n">
-        <v>-3.87</v>
+      <c r="I4">
+        <v>-4.66</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -627,18 +623,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
-        <v>50.48</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10.58</v>
+      <c r="E5">
+        <v>49.81</v>
+      </c>
+      <c r="F5">
+        <v>11.76</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5" t="n">
-        <v>-3.26</v>
+      <c r="I5">
+        <v>-4.54</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -651,17 +647,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
-        <v>179.91</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11.85</v>
+      <c r="E6">
+        <v>177.11</v>
+      </c>
+      <c r="F6">
+        <v>13.22</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
-      <c r="I6" t="n">
-        <v>-2.22</v>
+      <c r="I6">
+        <v>-3.74</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -669,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -741,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>113.99</v>
+        <v>113.48</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -753,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-1.4012628665340409E-2</v>
+        <v>-1.8424011763688224E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -768,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>99.59</v>
+        <v>99.89</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -780,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-8.9561150363219374E-3</v>
+        <v>-5.9707433575479588E-3</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -795,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>50.12</v>
+        <v>49.81</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -807,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-4.7656870532168782E-3</v>
+        <v>-1.0921366163621866E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -822,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>179.91</v>
+        <v>177.11</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -835,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-2.2228260869565235E-2</v>
+        <v>-3.744565217391297E-2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>27-Jan-2025</t>
+    <t>28-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>113.48</v>
+        <v>110.88</v>
       </c>
       <c r="F3">
-        <v>10.6</v>
+        <v>12.65</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-7.59</v>
+        <v>-9.7100000000000009</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>99.89</v>
+        <v>98.26</v>
       </c>
       <c r="F4">
-        <v>12.13</v>
+        <v>13.56</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-4.66</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>49.81</v>
+        <v>48.92</v>
       </c>
       <c r="F5">
-        <v>11.76</v>
+        <v>13.34</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-4.54</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>177.11</v>
+        <v>172.25</v>
       </c>
       <c r="F6">
-        <v>13.22</v>
+        <v>15.61</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-3.74</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>113.48</v>
+        <v>110.88</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -749,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-1.8424011763688224E-2</v>
+        <v>-4.0913415794481482E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>99.89</v>
+        <v>98.26</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -776,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-5.9707433575479588E-3</v>
+        <v>-2.219126281222002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>49.81</v>
+        <v>48.92</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-1.0921366163621866E-2</v>
+        <v>-2.8594122319300988E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>177.11</v>
+        <v>172.25</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -831,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-3.744565217391297E-2</v>
+        <v>-6.3858695652173919E-2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>28-Jan-2025</t>
+    <t>29-Jan-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>110.88</v>
+        <v>109.25</v>
       </c>
       <c r="F3">
-        <v>12.65</v>
+        <v>13.94</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-9.7100000000000009</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>98.26</v>
+        <v>98.5</v>
       </c>
       <c r="F4">
-        <v>13.56</v>
+        <v>13.35</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-6.21</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>48.92</v>
+        <v>48.99</v>
       </c>
       <c r="F5">
-        <v>13.34</v>
+        <v>13.22</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-6.25</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>172.25</v>
+        <v>169.34</v>
       </c>
       <c r="F6">
-        <v>15.61</v>
+        <v>17.03</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-6.39</v>
+        <v>-7.97</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>110.88</v>
+        <v>109.25</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>98.26</v>
+        <v>98.5</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>48.92</v>
+        <v>48.99</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>172.25</v>
+        <v>169.34</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>29-Jan-2025</t>
+    <t>01-Feb-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>109.25</v>
+        <v>112.03</v>
       </c>
       <c r="F3">
-        <v>13.94</v>
+        <v>11.75</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-11.03</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>98.5</v>
+        <v>100.58</v>
       </c>
       <c r="F4">
-        <v>13.35</v>
+        <v>11.52</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-5.98</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>48.99</v>
+        <v>49.71</v>
       </c>
       <c r="F5">
-        <v>13.22</v>
+        <v>11.94</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-6.11</v>
+        <v>-4.7300000000000004</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>169.34</v>
+        <v>173.98</v>
       </c>
       <c r="F6">
-        <v>17.03</v>
+        <v>14.76</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-7.97</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>109.25</v>
+        <v>112.03</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>98.5</v>
+        <v>100.58</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>48.99</v>
+        <v>49.71</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -818,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>169.34</v>
+        <v>173.98</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>01-Feb-2025</t>
+    <t>04-Feb-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>112.03</v>
+        <v>113.68</v>
       </c>
       <c r="F3">
-        <v>11.75</v>
+        <v>10.45</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-8.77</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>100.58</v>
+        <v>101.84</v>
       </c>
       <c r="F4">
-        <v>11.52</v>
+        <v>10.42</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-4</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>49.71</v>
+        <v>50.09</v>
       </c>
       <c r="F5">
-        <v>11.94</v>
+        <v>11.27</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-4.7300000000000004</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>173.98</v>
+        <v>174.6</v>
       </c>
       <c r="F6">
-        <v>14.76</v>
+        <v>14.45</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-5.45</v>
+        <v>-5.1100000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>112.03</v>
+        <v>113.68</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -749,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-4.0913415794481482E-2</v>
+        <v>-1.6694057607473337E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>100.58</v>
+        <v>101.84</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -776,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-2.219126281222002E-2</v>
+        <v>1.3434172554483119E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>49.71</v>
+        <v>50.09</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-2.8594122319300988E-2</v>
+        <v>-5.361397934868865E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>173.98</v>
+        <v>174.6</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -831,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-6.3858695652173919E-2</v>
+        <v>-5.1086956521739162E-2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -84,12 +84,16 @@
   </si>
   <si>
     <t>04-Feb-2025</t>
+  </si>
+  <si>
+    <t>12-Feb-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,16 +532,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -576,18 +580,18 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3">
-        <v>113.68</v>
-      </c>
-      <c r="F3">
-        <v>10.45</v>
+      <c r="E3" t="n">
+        <v>112.76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.17</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3">
-        <v>-7.43</v>
+      <c r="I3" t="n">
+        <v>-8.18</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -600,17 +604,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4">
-        <v>101.84</v>
-      </c>
-      <c r="F4">
-        <v>10.42</v>
+      <c r="E4" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.47</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4">
-        <v>-2.8</v>
+      <c r="I4" t="n">
+        <v>-5.03</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -623,18 +627,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5">
-        <v>50.09</v>
-      </c>
-      <c r="F5">
-        <v>11.27</v>
+      <c r="E5" t="n">
+        <v>49.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.48</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5">
-        <v>-4.01</v>
+      <c r="I5" t="n">
+        <v>-4.24</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -647,17 +651,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6">
-        <v>174.6</v>
-      </c>
-      <c r="F6">
-        <v>14.45</v>
+      <c r="E6" t="n">
+        <v>173.22</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.13</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
-      <c r="I6">
-        <v>-5.1100000000000003</v>
+      <c r="I6" t="n">
+        <v>-5.86</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -665,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashish.anarase\git\DemoSiteAutomationE2E\DataFiles\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Last Updated On</t>
   </si>
@@ -83,17 +83,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>04-Feb-2025</t>
-  </si>
-  <si>
-    <t>12-Feb-2025</t>
+    <t>17-Feb-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,21 +523,21 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="23.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="6.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -580,18 +576,18 @@
       <c r="D3" s="5">
         <v>126.94</v>
       </c>
-      <c r="E3" t="n">
-        <v>112.76</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.17</v>
+      <c r="E3">
+        <v>106.44</v>
+      </c>
+      <c r="F3">
+        <v>16.149999999999999</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
-      <c r="I3" t="n">
-        <v>-8.18</v>
+      <c r="I3">
+        <v>-13.32</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -604,17 +600,17 @@
       <c r="D4" s="5">
         <v>113.68</v>
       </c>
-      <c r="E4" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12.47</v>
+      <c r="E4">
+        <v>98.44</v>
+      </c>
+      <c r="F4">
+        <v>13.41</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
-      <c r="I4" t="n">
-        <v>-5.03</v>
+      <c r="I4">
+        <v>-6.04</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -627,18 +623,18 @@
       <c r="D5" s="5">
         <v>56.45</v>
       </c>
-      <c r="E5" t="n">
-        <v>49.97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11.48</v>
+      <c r="E5">
+        <v>48.25</v>
+      </c>
+      <c r="F5">
+        <v>14.53</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
-      <c r="I5" t="n">
-        <v>-4.24</v>
+      <c r="I5">
+        <v>-7.53</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -651,17 +647,17 @@
       <c r="D6" s="5">
         <v>204.1</v>
       </c>
-      <c r="E6" t="n">
-        <v>173.22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15.13</v>
+      <c r="E6">
+        <v>162.93</v>
+      </c>
+      <c r="F6">
+        <v>20.170000000000002</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
-      <c r="I6" t="n">
-        <v>-5.86</v>
+      <c r="I6">
+        <v>-11.45</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -669,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -741,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>113.68</v>
+        <v>106.44</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -753,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-1.6694057607473337E-2</v>
+        <v>-7.9318398062451362E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -768,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>101.84</v>
+        <v>98.44</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -780,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>1.3434172554483119E-2</v>
+        <v>-2.0400039804955691E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -795,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>50.09</v>
+        <v>48.25</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -807,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-5.361397934868865E-3</v>
+        <v>-4.1898332009531365E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -822,7 +818,7 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>174.6</v>
+        <v>162.93</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
@@ -835,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-5.1086956521739162E-2</v>
+        <v>-0.11451086956521736</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>17-Feb-2025</t>
+    <t>18-Feb-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>106.44</v>
+        <v>105.53</v>
       </c>
       <c r="F3">
-        <v>16.149999999999999</v>
+        <v>16.87</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-13.32</v>
+        <v>-14.06</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>98.44</v>
+        <v>98.34</v>
       </c>
       <c r="F4">
-        <v>13.41</v>
+        <v>13.49</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-6.04</v>
+        <v>-6.14</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>48.25</v>
+        <v>48.33</v>
       </c>
       <c r="F5">
-        <v>14.53</v>
+        <v>14.38</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-7.53</v>
+        <v>-7.38</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>162.93</v>
+        <v>162.37</v>
       </c>
       <c r="F6">
-        <v>20.170000000000002</v>
+        <v>20.45</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-11.45</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,11 +737,11 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>106.44</v>
+        <v>105.53</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
-        <v>7.1923743500866513E-2</v>
+        <v>0.16866236017015912</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="12">
@@ -749,7 +749,7 @@
       </c>
       <c r="I19" s="11">
         <f>(E19-H19)/H19</f>
-        <v>-7.9318398062451362E-2</v>
+        <v>-8.7189689473228943E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -764,11 +764,11 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>98.44</v>
+        <v>98.34</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
-        <v>0.10503166783954972</v>
+        <v>0.13494018296973964</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
@@ -776,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-2.0400039804955691E-2</v>
+        <v>-2.1395163697880304E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,11 +791,11 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>48.25</v>
+        <v>48.33</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
-        <v>9.3356953055801647E-2</v>
+        <v>0.14384410983170956</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
@@ -803,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-4.1898332009531365E-2</v>
+        <v>-4.0309769658459116E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -818,11 +818,11 @@
       </c>
       <c r="E22" s="10">
         <f>E6</f>
-        <v>162.93</v>
+        <v>162.37</v>
       </c>
       <c r="F22" s="11">
         <f>(D22-E22)/D22</f>
-        <v>8.9955903968642753E-2</v>
+        <v>0.2044585987261146</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
@@ -831,7 +831,7 @@
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-0.11451086956521736</v>
+        <v>-0.11755434782608694</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>18-Feb-2025</t>
+    <t>20-Feb-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>105.53</v>
+        <v>105.86</v>
       </c>
       <c r="F3">
-        <v>16.87</v>
+        <v>16.61</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-14.06</v>
+        <v>-13.79</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>98.34</v>
+        <v>98.67</v>
       </c>
       <c r="F4">
-        <v>13.49</v>
+        <v>13.2</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-6.14</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>48.33</v>
+        <v>48.63</v>
       </c>
       <c r="F5">
-        <v>14.38</v>
+        <v>13.85</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-7.38</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>162.37</v>
+        <v>163.02000000000001</v>
       </c>
       <c r="F6">
-        <v>20.45</v>
+        <v>20.13</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-11.76</v>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -772,11 +772,11 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12">
-        <v>100.49</v>
+        <v>98.34</v>
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>-2.1395163697880304E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -799,11 +799,11 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="12">
-        <v>50.36</v>
+        <v>48.33</v>
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>-4.0309769658459116E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -826,12 +826,11 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
-        <f>H6</f>
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="I22" s="11">
         <f>(E22-H22)/H22</f>
-        <v>-0.11755434782608694</v>
+        <v>-3.8650306748465981E-3</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">

--- a/DataFiles/MutualFundTracker.xlsx
+++ b/DataFiles/MutualFundTracker.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>20-Feb-2025</t>
+    <t>11-Mar-2025</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +577,17 @@
         <v>126.94</v>
       </c>
       <c r="E3">
-        <v>105.86</v>
+        <v>105.38</v>
       </c>
       <c r="F3">
-        <v>16.61</v>
+        <v>16.98</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="3">
         <v>122.8</v>
       </c>
       <c r="I3">
-        <v>-13.79</v>
+        <v>-14.19</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -601,16 +601,16 @@
         <v>113.68</v>
       </c>
       <c r="E4">
-        <v>98.67</v>
+        <v>96.35</v>
       </c>
       <c r="F4">
-        <v>13.2</v>
+        <v>15.24</v>
       </c>
       <c r="H4" s="3">
         <v>104.77</v>
       </c>
       <c r="I4">
-        <v>-5.82</v>
+        <v>-8.0399999999999991</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -624,17 +624,17 @@
         <v>56.45</v>
       </c>
       <c r="E5">
-        <v>48.63</v>
+        <v>47.76</v>
       </c>
       <c r="F5">
-        <v>13.85</v>
+        <v>15.39</v>
       </c>
       <c r="G5"/>
       <c r="H5" s="3">
         <v>52.18</v>
       </c>
       <c r="I5">
-        <v>-6.8</v>
+        <v>-8.4700000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -648,16 +648,16 @@
         <v>204.1</v>
       </c>
       <c r="E6">
-        <v>163.02000000000001</v>
+        <v>160.82</v>
       </c>
       <c r="F6">
-        <v>20.13</v>
+        <v>21.21</v>
       </c>
       <c r="H6" s="3">
         <v>184</v>
       </c>
       <c r="I6">
-        <v>-11.4</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
       </c>
       <c r="E19" s="10">
         <f>E3</f>
-        <v>105.53</v>
+        <v>105.38</v>
       </c>
       <c r="F19" s="11">
         <f>(D19-E19)/D19</f>
@@ -764,7 +764,7 @@
       </c>
       <c r="E20" s="10">
         <f>E4</f>
-        <v>98.34</v>
+        <v>96.35</v>
       </c>
       <c r="F20" s="11">
         <f>(D20-E20)/D20</f>
@@ -776,7 +776,7 @@
       </c>
       <c r="I20" s="11">
         <f>(E20-H20)/H20</f>
-        <v>0</v>
+        <v>-2.0235916209070663E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
       </c>
       <c r="E21" s="10">
         <f>E5</f>
-        <v>48.33</v>
+        <v>47.76</v>
       </c>
       <c r="F21" s="11">
         <f>(D21-E21)/D21</f>
@@ -803,7 +803,7 @@
       </c>
       <c r="I21" s="11">
         <f>(E21-H21)/H21</f>
-        <v>0</v>
+        <v>-1.1793916821849789E-2</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
